--- a/ProductBacklog-Nhóm-10.xlsx
+++ b/ProductBacklog-Nhóm-10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Nhat Hao\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Nhat Hao\Downloads\CÔNG NGHỆ PHẦN MỀM NÂNG CAO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF2CA82-0D4B-40A9-B3AE-569E220C6F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93E4769-5F80-4A0F-9291-101BE55E91FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="798" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" tabRatio="798" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Information" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Product backlog" sheetId="1" r:id="rId3"/>
     <sheet name="Sprint backlog" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="81">
   <si>
     <t>I. Requirements</t>
   </si>
@@ -107,26 +107,6 @@
     <t>Dev</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Cửa hàng bán đồ ăn nhanh LotteBee là một chuỗi cửa hàng chuyên bán đồ ăn thức uống nhanh nhiều năm nay và đã có một lượng khách hàng nhất định. Để mở rộng hoạt động kinh doanh của mình, công ty mong muốn xây dựng một hệ thống thương mại điện tử nhằm mở rộng phạm vi kinh doanh trên mạng Internet. Hệ thống mới phải đảm bảo cho khách hàng viếng thăm Website dễ dành lựa chọn các sản phẩm, các chính sách của công ty cũng như mua hàng. Việc thanh toán có thể được thực hiện qua mạng hoặc thanh toán trực tiếp. Khách hàng có thể nhận hàng tại cửa hàng hoặc công ty sẽ có dịch vụ chuyển hàng có phí cho khách hàng.Ngoài ra, hệ thống cũng cần có phân hệ để đảm bảo cho công ty quản lý các hoạt động kinh doanh như số lượng hàng có trong kho, quản lý đơn đặt hàng, tình trạng giao hàng v.v…           
-           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-           </t>
-    </r>
-  </si>
-  <si>
     <t>ID Story</t>
   </si>
   <si>
@@ -226,21 +206,6 @@
     <t>Lập trình giao diện thanh toán</t>
   </si>
   <si>
-    <t>Sprint 1 : Mục tiêu giúp khách hàng tìm kiếm và xem thông tin sản phẩm cần tìm</t>
-  </si>
-  <si>
-    <t>Sprint 2 : Mục tiêu giúp khách hàng quản lý giỏ hàng và thanh toán đơn hàng</t>
-  </si>
-  <si>
-    <t>Sprint 3 : Mục tiêu chức năng phụ trợ cho Admin</t>
-  </si>
-  <si>
-    <t>Completion time ̣̣(reality)</t>
-  </si>
-  <si>
-    <t>Completion time(expected)</t>
-  </si>
-  <si>
     <t>Khách hàng tôi muốn quản lý tài khoản trên website để xem và đặt món ăn</t>
   </si>
   <si>
@@ -293,6 +258,29 @@
   </si>
   <si>
     <t>Nghiên cứu công nghệ giỏ hàng cho trang web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cửa hàng bán đồ ăn nhanh LotteBee là một chuỗi cửa hàng chuyên bán đồ ăn thức uống nhanh nhiều năm nay và đã có một lượng khách hàng nhất định. Để mở rộng hoạt động kinh doanh của mình, công ty mong muốn xây dựng một hệ thống thương mại điện tử nhằm mở rộng phạm vi kinh doanh trên mạng Internet. Hệ thống mới phải đảm bảo cho khách hàng viếng thăm Website dễ dành lựa chọn các sản phẩm, các chính sách của công ty cũng như mua hàng. Việc thanh toán có thể được thực hiện qua mạng hoặc thanh toán trực tiếp. Khách hàng có thể nhận hàng tại cửa hàng hoặc công ty sẽ có dịch vụ chuyển hàng có phí cho khách hàng.Ngoài ra, hệ thống cũng cần có phân hệ để đảm bảo cho công ty quản lý các hoạt động kinh doanh như số lượng hàng có trong kho, quản lý đơn đặt hàng, tình trạng giao hàng v.v…     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khách hàng muốn xem món ăn trên 
+website hệ thống bán đồ ăn nhanh để tìm kiếm sản phẩm </t>
+  </si>
+  <si>
+    <t>Khách hàng tôi muốn quản lý tài khoản
+ trên website để xem và đặt món ăn</t>
+  </si>
+  <si>
+    <t>Completion time</t>
   </si>
 </sst>
 </file>
@@ -571,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -663,7 +651,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -675,27 +669,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -711,11 +705,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,7 +1125,7 @@
   <dimension ref="A2:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L19"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1145,244 +1136,244 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
+      <c r="A3" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" s="8"/>
@@ -1415,14 +1406,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -1470,7 +1461,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>22</v>
@@ -1509,7 +1500,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="3">
         <v>45112</v>
@@ -1568,29 +1559,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="37.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="A1" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
@@ -1608,10 +1599,10 @@
     </row>
     <row r="4" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -1620,15 +1611,15 @@
         <v>3</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -1637,15 +1628,15 @@
         <v>3</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="13">
         <v>2</v>
@@ -1654,15 +1645,15 @@
         <v>3</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C7" s="10">
         <v>2</v>
@@ -1671,15 +1662,15 @@
         <v>5</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C8" s="13">
         <v>2</v>
@@ -1688,15 +1679,15 @@
         <v>3</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C9" s="13">
         <v>3</v>
@@ -1705,15 +1696,15 @@
         <v>5</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>36</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>37</v>
       </c>
       <c r="C10" s="13">
         <v>3</v>
@@ -1722,7 +1713,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
@@ -1831,20 +1822,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="126.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.85546875" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="80.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="23.140625" style="28" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="15.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" style="28" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" style="28" bestFit="1" customWidth="1"/>
@@ -1854,20 +1844,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
+      <c r="A1" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
     </row>
     <row r="2" spans="1:14" ht="65.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -1877,22 +1867,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I2" s="37" t="s">
         <v>12</v>
@@ -1918,483 +1908,491 @@
       <c r="N3" s="39"/>
     </row>
     <row r="4" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
+      <c r="A4" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="39"/>
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
       <c r="N4" s="39"/>
     </row>
     <row r="5" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="49">
+      <c r="A5" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="50">
         <v>1</v>
       </c>
       <c r="D5" s="30">
         <v>1</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="59">
+        <v>59</v>
+      </c>
+      <c r="I5" s="43">
         <v>44635</v>
       </c>
-      <c r="J5" s="60">
+      <c r="J5" s="44">
         <v>44636</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="53"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="30">
         <v>1</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="59">
+        <v>60</v>
+      </c>
+      <c r="I6" s="43">
         <v>45002</v>
       </c>
-      <c r="J6" s="60">
+      <c r="J6" s="44">
         <v>45003</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="48"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
       <c r="D7" s="30">
         <v>1</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="59">
+        <v>61</v>
+      </c>
+      <c r="I7" s="43">
         <v>45004</v>
       </c>
-      <c r="J7" s="60">
+      <c r="J7" s="44">
         <v>45005</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="49">
+      <c r="A8" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="50">
         <v>1</v>
       </c>
       <c r="D8" s="30">
         <v>1</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="59">
+        <v>48</v>
+      </c>
+      <c r="I8" s="43">
         <v>45006</v>
       </c>
-      <c r="J8" s="60">
+      <c r="J8" s="44">
         <v>45009</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="53"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="30">
         <v>1</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="59">
+        <v>62</v>
+      </c>
+      <c r="I9" s="43">
         <v>45010</v>
       </c>
-      <c r="J9" s="60">
+      <c r="J9" s="44">
         <v>45011</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
       <c r="D10" s="30">
         <v>1</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="59">
+        <v>61</v>
+      </c>
+      <c r="I10" s="43">
         <v>45012</v>
       </c>
-      <c r="J10" s="60">
+      <c r="J10" s="44">
         <v>45014</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
+      <c r="A11" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="60"/>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
       <c r="M11" s="39"/>
       <c r="N11" s="39"/>
     </row>
     <row r="12" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="49">
+      <c r="A12" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="50">
         <v>2</v>
       </c>
       <c r="D12" s="30">
         <v>1</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F12" s="30" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="60">
+        <v>48</v>
+      </c>
+      <c r="I12" s="44">
         <v>45015</v>
       </c>
-      <c r="J12" s="60">
+      <c r="J12" s="44">
         <v>45016</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="50"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="30">
         <v>1</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="60">
+        <v>44</v>
+      </c>
+      <c r="I13" s="44">
         <v>45017</v>
       </c>
-      <c r="J13" s="60">
+      <c r="J13" s="44">
         <v>45019</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="55"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="51"/>
       <c r="D14" s="30">
         <v>1</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="60">
+        <v>44</v>
+      </c>
+      <c r="I14" s="44">
         <v>45020</v>
       </c>
-      <c r="J14" s="60">
+      <c r="J14" s="44">
         <v>45024</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="49">
+      <c r="A15" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="50">
         <v>2</v>
       </c>
       <c r="D15" s="30">
         <v>1</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="60">
+        <v>48</v>
+      </c>
+      <c r="I15" s="44">
         <v>45025</v>
       </c>
-      <c r="J15" s="60">
+      <c r="J15" s="44">
         <v>45027</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="30">
         <v>2</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H16" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="60">
-        <v>45026</v>
-      </c>
-      <c r="J16" s="60">
+        <v>44</v>
+      </c>
+      <c r="I16" s="44">
+        <v>45028</v>
+      </c>
+      <c r="J16" s="44">
         <v>45032</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="58"/>
+      <c r="A17" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="60"/>
       <c r="K17" s="39"/>
       <c r="L17" s="39"/>
       <c r="M17" s="39"/>
       <c r="N17" s="39"/>
     </row>
     <row r="18" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="49">
+      <c r="A18" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="50">
         <v>2</v>
       </c>
       <c r="D18" s="30">
         <v>2</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="60">
+        <v>48</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="44">
         <v>45033</v>
       </c>
-      <c r="J18" s="60">
+      <c r="J18" s="44">
         <v>45036</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="51"/>
       <c r="D19" s="30">
         <v>3</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>17</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="60">
+        <v>44</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="44">
         <v>45037</v>
       </c>
-      <c r="J19" s="60">
+      <c r="J19" s="44">
         <v>45046</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="49">
+      <c r="A20" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="50">
         <v>3</v>
       </c>
       <c r="D20" s="30">
         <v>2</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="60">
+        <v>48</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="44">
         <v>45047</v>
       </c>
-      <c r="J20" s="60">
+      <c r="J20" s="44">
         <v>45049</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="30">
         <v>3</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="42"/>
-      <c r="I21" s="60">
+        <v>44</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="44">
         <v>45050</v>
       </c>
-      <c r="J21" s="60">
+      <c r="J21" s="44">
         <v>45061</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="31" t="s">
         <v>36</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>37</v>
       </c>
       <c r="C22" s="31">
         <v>3</v>
@@ -2403,19 +2401,21 @@
         <v>1</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="42"/>
-      <c r="I22" s="60">
+        <v>48</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="44">
         <v>45062</v>
       </c>
-      <c r="J22" s="60">
+      <c r="J22" s="44">
         <v>45069</v>
       </c>
     </row>
@@ -2425,6 +2425,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="A5:A7"/>
@@ -2441,12 +2447,6 @@
     <mergeCell ref="A17:J17"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
